--- a/results/Small_Message_Results.xlsx
+++ b/results/Small_Message_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahar\Documents\GitHub\Hybrid-Cryptography\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E10407E-3A78-4A1E-9337-8954302411ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8041119F-9420-4BCF-8FDC-BF56EA55D1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7D14C587-8415-4529-AEA5-7167A7232A52}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Classic authentication and classic key exchange</t>
+    <t>Hybrid</t>
   </si>
   <si>
-    <t>Classic authentication and hybrid key exchange</t>
-  </si>
-  <si>
-    <t>Hybrid authentication and hybrid key exchange</t>
+    <t>Classic</t>
   </si>
 </sst>
 </file>
@@ -416,174 +413,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7837C28B-CF4F-4801-8B76-CD45390431A9}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.90625" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
     <col min="5" max="5" width="39.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <f>0.014+0.009</f>
-        <v>2.3E-2</v>
-      </c>
-      <c r="C2">
-        <f>0.018+0.009</f>
-        <v>2.6999999999999996E-2</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>0.02+0.009</f>
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="C3">
+        <f>0.011+0.007</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
         <f>0.011+0.006</f>
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <f>0.013+0.008</f>
-        <v>2.0999999999999998E-2</v>
-      </c>
-      <c r="C3">
-        <f>0.022+0.014</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E3">
-        <f xml:space="preserve"> 0.014+0.007</f>
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <f>0.017+0.009</f>
-        <v>2.6000000000000002E-2</v>
-      </c>
       <c r="C4">
-        <f>0.022+0.013</f>
-        <v>3.4999999999999996E-2</v>
-      </c>
-      <c r="E4">
-        <f>0.013+0.008</f>
-        <v>2.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <f>0.038+0.012</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f>0.024+0.012</f>
-        <v>3.6000000000000004E-2</v>
+        <f>0.018+0.01</f>
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="C5">
-        <f xml:space="preserve"> 0.011+0.006</f>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="E5">
+        <f>0.013+0.007</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f>0.012+0.013</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <f>0.01+0.006</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f>0.012+0.007</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="C7">
+        <f>0.012+0.007</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f>0.013+0.007</f>
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <f>0.017+0.008</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f>0.015+0.008</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="C9">
+        <f>0.015+0.009</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f>0.021+0.011</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C10">
+        <f>0.012+0.007</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
         <f>0.011+0.006</f>
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <f xml:space="preserve"> 0.019+0.01</f>
-        <v>2.8999999999999998E-2</v>
-      </c>
-      <c r="C6">
-        <f>0.016+0.008</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="E6">
-        <f xml:space="preserve"> 0.014+0.007</f>
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <f>0.012+0.006</f>
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="C7">
+      <c r="C11">
+        <f>0.01+0.005</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
         <f>0.016+0.009</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E7">
-        <f>0.018+0.01</f>
-        <v>2.7999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <f>0.019+0.01</f>
-        <v>2.8999999999999998E-2</v>
-      </c>
-      <c r="C8">
-        <f>0.033+0.008</f>
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="E8">
-        <f>0.018+0.008</f>
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <f>0.023+0.011</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="C9">
-        <f>0.016+0.008</f>
+      <c r="C12">
+        <f>0.472+0.019</f>
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f>MEDIAN(A3:A12)</f>
         <v>2.4E-2</v>
       </c>
-      <c r="E9">
-        <f>0.019+0.01</f>
-        <v>2.8999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <f>0.02+0.012</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C10">
-        <f>0.017+0.008</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E10">
-        <f>0.015+0.007</f>
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <f>0.017+0.009</f>
-        <v>2.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f>AVERAGE(A2:A11)</f>
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="C13">
-        <f>AVERAGE(C2:C11)</f>
-        <v>2.8222222222222221E-2</v>
-      </c>
-      <c r="E13">
-        <f>AVERAGE(E2:E11)</f>
-        <v>2.2444444444444444E-2</v>
+      <c r="C14">
+        <f>MEDIAN(C2:C12)</f>
+        <v>1.95E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/Small_Message_Results.xlsx
+++ b/results/Small_Message_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahar\Documents\GitHub\Hybrid-Cryptography\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8041119F-9420-4BCF-8FDC-BF56EA55D1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0BCC6D-04F4-48E6-A1E7-886060A3732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7D14C587-8415-4529-AEA5-7167A7232A52}"/>
   </bookViews>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7837C28B-CF4F-4801-8B76-CD45390431A9}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,14 +535,114 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f>0.018+0.01</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="C13">
+        <f>0.015+0.01</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f>MEDIAN(A3:A12)</f>
+        <f>0.142+0.01</f>
+        <v>0.152</v>
+      </c>
+      <c r="C14">
+        <f>0.018+0.008</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f>0.016+0.007</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="C15">
+        <f>0.018+0.009</f>
+        <v>2.6999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f>0.014+0.022</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C16">
+        <f>0.018+0.009</f>
+        <v>2.6999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f>0.014+0.007</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <f>0.024+0.01</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f>0.016+0.008</f>
         <v>2.4E-2</v>
       </c>
-      <c r="C14">
-        <f>MEDIAN(C2:C12)</f>
-        <v>1.95E-2</v>
+      <c r="C18">
+        <f>0.019+0.009</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f>0.022+0.012</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C19">
+        <f>0.01+0.006</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f>0.015+0.009</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="C20">
+        <f>0.016+0.008</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f>0.013+0.007</f>
+        <v>0.02</v>
+      </c>
+      <c r="C21">
+        <f>0.019+0.01</f>
+        <v>2.8999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f>0.022+0.013</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="C22">
+        <f>0.013+0.007</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f>MEDIAN(A3:A22)</f>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="C24">
+        <f>MEDIAN(C3:C22)</f>
+        <v>2.4500000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/Small_Message_Results.xlsx
+++ b/results/Small_Message_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahar\Documents\GitHub\Hybrid-Cryptography\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0BCC6D-04F4-48E6-A1E7-886060A3732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C830E916-161D-451D-B577-E091174911E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7D14C587-8415-4529-AEA5-7167A7232A52}"/>
   </bookViews>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7837C28B-CF4F-4801-8B76-CD45390431A9}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results/Small_Message_Results.xlsx
+++ b/results/Small_Message_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahar\Documents\GitHub\Hybrid-Cryptography\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C830E916-161D-451D-B577-E091174911E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641B2441-3054-4CFD-985D-056A9A9F1350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7D14C587-8415-4529-AEA5-7167A7232A52}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,8 +627,8 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f>0.022+0.013</f>
-        <v>3.4999999999999996E-2</v>
+        <f>0.011+0.007</f>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C22">
         <f>0.013+0.007</f>
@@ -638,7 +638,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>MEDIAN(A3:A22)</f>
-        <v>2.4500000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C24">
         <f>MEDIAN(C3:C22)</f>
